--- a/final_data_pipeline/output/325194longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325194longform_elec_options.xlsx
@@ -600,7 +600,7 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -615,10 +615,10 @@
         <v>1526326.472640449</v>
       </c>
       <c r="R2">
-        <v>1.052935222672065</v>
+        <v>1.105721877767936</v>
       </c>
       <c r="S2">
-        <v>1.086814345991561</v>
+        <v>1.143718778908418</v>
       </c>
       <c r="T2">
         <v>190.7908090800561</v>
@@ -653,7 +653,7 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1015,10 +1015,10 @@
         <v>358787.9976041867</v>
       </c>
       <c r="R10">
-        <v>1.052935222672065</v>
+        <v>1.004851086664878</v>
       </c>
       <c r="S10">
-        <v>1.086814345991561</v>
+        <v>1.035188389617639</v>
       </c>
       <c r="T10">
         <v>44.84849970052334</v>
@@ -1053,7 +1053,7 @@
         <v>44</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1400,7 +1400,7 @@
         <v>44</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1447,7 +1447,7 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1462,10 +1462,10 @@
         <v>260213.1745406333</v>
       </c>
       <c r="R19">
-        <v>1.052935222672065</v>
+        <v>1.103333005990376</v>
       </c>
       <c r="S19">
-        <v>1.086814345991561</v>
+        <v>1.14113834478515</v>
       </c>
       <c r="T19">
         <v>32.52664681757916</v>
@@ -1600,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1647,7 +1647,7 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1662,10 +1662,10 @@
         <v>1032763.989452207</v>
       </c>
       <c r="R23">
-        <v>1.052935222672065</v>
+        <v>1.065614691876665</v>
       </c>
       <c r="S23">
-        <v>1.086814345991561</v>
+        <v>1.100460934966844</v>
       </c>
       <c r="T23">
         <v>129.0954986815259</v>
